--- a/data/trans_camb/IP15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP15-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 8,15</t>
+          <t>-13,19; 7,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 1,51</t>
+          <t>-19,16; 0,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 13,94</t>
+          <t>-10,37; 13,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 11,43</t>
+          <t>-9,09; 11,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 14,45</t>
+          <t>-9,05; 15,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 17,8</t>
+          <t>-11,72; 14,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 7,1</t>
+          <t>-7,95; 6,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 3,29</t>
+          <t>-12,29; 3,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 10,22</t>
+          <t>-7,76; 10,18</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,2; 46,53</t>
+          <t>-45,22; 43,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,46; 10,7</t>
+          <t>-70,75; 4,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,57; 74,42</t>
+          <t>-37,21; 71,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 58,69</t>
+          <t>-30,82; 58,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 72,37</t>
+          <t>-33,87; 78,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 94,31</t>
+          <t>-42,96; 71,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 35,31</t>
+          <t>-29,66; 33,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 16,61</t>
+          <t>-46,57; 18,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 50,09</t>
+          <t>-29,78; 49,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 6,06</t>
+          <t>-2,1; 6,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 3,29</t>
+          <t>-5,29; 2,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,54</t>
+          <t>-0,17; 9,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,39</t>
+          <t>-4,66; 4,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 1,96</t>
+          <t>-6,03; 2,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 9,34</t>
+          <t>-2,14; 8,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 4,34</t>
+          <t>-1,92; 4,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 1,28</t>
+          <t>-4,42; 1,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 7,32</t>
+          <t>0,93; 7,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 36,85</t>
+          <t>-10,98; 38,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 20,57</t>
+          <t>-25,97; 15,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,79; 59,71</t>
+          <t>-1,49; 55,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 24,55</t>
+          <t>-21,38; 27,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 11,43</t>
+          <t>-28,1; 13,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 56,51</t>
+          <t>-9,91; 48,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 25,02</t>
+          <t>-9,42; 23,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 7,5</t>
+          <t>-21,84; 7,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 42,07</t>
+          <t>3,94; 43,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 8,66</t>
+          <t>-6,65; 8,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -0,45</t>
+          <t>-14,59; -0,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 10,61</t>
+          <t>-5,03; 11,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 14,82</t>
+          <t>1,85; 15,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 9,99</t>
+          <t>-2,32; 9,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,19; 21,35</t>
+          <t>7,57; 21,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 9,43</t>
+          <t>-0,13; 10,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 3,43</t>
+          <t>-6,23; 3,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 13,8</t>
+          <t>3,06; 14,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 46,74</t>
+          <t>-26,54; 46,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,07; -2,39</t>
+          <t>-54,48; 1,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 56,89</t>
+          <t>-19,54; 60,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,47; 142,04</t>
+          <t>11,38; 153,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 93,11</t>
+          <t>-15,13; 93,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,55; 204,15</t>
+          <t>45,85; 207,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 61,61</t>
+          <t>-1,33; 65,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 21,96</t>
+          <t>-31,74; 22,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,33; 91,24</t>
+          <t>15,34; 94,71</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 4,83</t>
+          <t>-2,37; 4,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 0,04</t>
+          <t>-6,52; -0,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,4</t>
+          <t>0,36; 7,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,92</t>
+          <t>-1,27; 5,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,91</t>
+          <t>-3,73; 3,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,21</t>
+          <t>1,39; 9,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,22</t>
+          <t>-0,9; 4,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,42</t>
+          <t>-4,28; 0,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,61</t>
+          <t>1,76; 7,71</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 26,4</t>
+          <t>-11,2; 24,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 0,15</t>
+          <t>-30,17; -0,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,01; 40,4</t>
+          <t>1,53; 42,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 36,04</t>
+          <t>-6,26; 35,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 17,3</t>
+          <t>-18,41; 18,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>8,7; 58,87</t>
+          <t>6,23; 57,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 23,63</t>
+          <t>-4,41; 23,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 2,35</t>
+          <t>-20,74; 1,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,23; 43,2</t>
+          <t>8,27; 42,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP15-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>3,49</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,95; 10,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,97; 15,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,4; 32,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,7; 9,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,62; -0,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,65; 13,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; 6,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,62; 3,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 18,08</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-3,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>14,67%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,46; 57,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,78; 81,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,49; 154,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,32; 56,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,26; 4,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,1; 79,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,7; 33,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,1; 17,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,83; 89,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,52</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>5,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 7,67</t>
+          <t>-4,13; 4,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 0,46</t>
+          <t>-6,37; 2,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 13,16</t>
+          <t>0,58; 21,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 11,36</t>
+          <t>-2,73; 5,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 15,38</t>
+          <t>-4,8; 2,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 14,05</t>
+          <t>0,29; 9,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 6,42</t>
+          <t>-2,03; 3,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 3,58</t>
+          <t>-4,29; 1,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 10,18</t>
+          <t>1,84; 12,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,94%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-45,1%</t>
+          <t>-9,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>-4,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,15%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,67%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>30,95%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,22; 43,09</t>
+          <t>-19,09; 27,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,75; 4,14</t>
+          <t>-29,44; 14,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 71,36</t>
+          <t>2,39; 126,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 58,55</t>
+          <t>-13,01; 35,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 78,48</t>
+          <t>-24,27; 16,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 71,86</t>
+          <t>0,96; 56,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 33,03</t>
+          <t>-9,36; 22,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,57; 18,23</t>
+          <t>-20,36; 7,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 49,33</t>
+          <t>9,09; 70,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>14,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>9,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 6,07</t>
+          <t>2,31; 15,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 2,67</t>
+          <t>-2,14; 10,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 9,39</t>
+          <t>7,21; 22,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 4,53</t>
+          <t>-6,22; 8,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 2,44</t>
+          <t>-13,86; -0,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 8,59</t>
+          <t>-4,44; 11,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 4,05</t>
+          <t>0,03; 10,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 1,31</t>
+          <t>-5,9; 3,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,56</t>
+          <t>4,38; 14,87</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>68,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,68%</t>
+          <t>28,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>114,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,42%</t>
+          <t>-30,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>-8,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>52,15%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 38,04</t>
+          <t>11,71; 158,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 15,81</t>
+          <t>-13,91; 100,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 55,75</t>
+          <t>40,01; 216,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 27,03</t>
+          <t>-24,89; 47,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 13,53</t>
+          <t>-53,07; -2,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 48,35</t>
+          <t>-17,62; 63,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 23,03</t>
+          <t>0,06; 65,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 7,62</t>
+          <t>-30,3; 23,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,94; 43,22</t>
+          <t>22,35; 101,12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,9</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,37</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>6,18</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 8,36</t>
+          <t>-0,75; 6,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,59; -0,02</t>
+          <t>-3,84; 2,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 11,03</t>
+          <t>3,8; 18,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 15,5</t>
+          <t>-2,18; 4,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 9,81</t>
+          <t>-6,67; -0,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,57; 21,55</t>
+          <t>0,19; 7,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 10,02</t>
+          <t>-0,7; 4,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 3,3</t>
+          <t>-4,32; 0,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,06; 14,14</t>
+          <t>2,99; 11,21</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-30,95%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>68,45%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>-16,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>110,88%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>32,29%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 46,85</t>
+          <t>-3,71; 35,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,48; 1,14</t>
+          <t>-19,16; 16,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 60,7</t>
+          <t>19,35; 107,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,38; 153,01</t>
+          <t>-10,34; 27,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 93,79</t>
+          <t>-31,11; -1,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>45,85; 207,65</t>
+          <t>0,89; 41,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 65,02</t>
+          <t>-3,33; 22,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 22,23</t>
+          <t>-21,61; 2,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,34; 94,71</t>
+          <t>15,0; 60,23</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-3,36</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>5,34</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 4,47</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; -0,04</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 7,64</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 5,97</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 3,24</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 9,89</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 4,24</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 0,27</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 7,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>5,89%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-16,89%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>19,51%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>12,84%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-1,65%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>29,02%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>9,12%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-9,79%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>23,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-11,2; 24,1</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-30,17; -0,16</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 42,25</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; 35,99</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-18,41; 18,93</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>6,23; 57,59</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-4,41; 23,35</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-20,74; 1,5</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>8,27; 42,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
